--- a/cases/NorthSea_v3/Nodes/Nodes.xlsx
+++ b/cases/NorthSea_v3/Nodes/Nodes.xlsx
@@ -5,19 +5,18 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea_v2\Nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DCFCE8-1AC7-4168-940C-D112FBFDF2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F27954-0E06-482F-AF1D-E614A4B2C325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{FC20BF45-2CFA-42DB-8304-0276C20725B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{541C0986-FED5-47AB-A05A-C932BF00238B}"/>
   </bookViews>
   <sheets>
     <sheet name="Carriers" sheetId="15" r:id="rId1"/>
     <sheet name="Nodes" sheetId="16" r:id="rId2"/>
-    <sheet name="NodeAggregation" sheetId="19" r:id="rId3"/>
-    <sheet name="NodeTranslation" sheetId="18" r:id="rId4"/>
-    <sheet name="Nodes_used" sheetId="17" r:id="rId5"/>
+    <sheet name="NodeTranslation" sheetId="18" r:id="rId3"/>
+    <sheet name="Nodes_used" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="67">
   <si>
     <t>Node</t>
   </si>
@@ -244,9 +243,6 @@
   </si>
   <si>
     <t>onNL_W</t>
-  </si>
-  <si>
-    <t>onNL_C</t>
   </si>
 </sst>
 </file>
@@ -256,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -299,12 +295,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -352,14 +342,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 3" xfId="8" xr:uid="{664FB872-901A-485D-9D05-D7CE568B056A}"/>
@@ -721,7 +708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C38F41-414B-4A65-B013-901535BEFDA6}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -752,7 +741,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F81CCE-23B0-4FF9-9FCE-AEF94EE15CA8}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
@@ -787,7 +776,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -820,7 +809,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -831,49 +820,40 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -881,10 +861,13 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -898,40 +881,46 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -942,7 +931,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -953,7 +942,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -964,7 +953,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -975,7 +964,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -986,7 +975,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -997,7 +986,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1008,7 +997,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1019,7 +1008,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1030,7 +1019,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -1041,7 +1030,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -1052,12 +1041,45 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1067,50 +1089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E687C624-37B0-471A-9606-3FE7C2F30C48}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9441A046-2A34-49B3-A94C-61E003D0B0E2}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1353,12 +1336,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D9B1AA-8DD2-4D89-BC8B-B5E70F0E3B57}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1367,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -1408,7 +1391,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -1416,7 +1399,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1424,7 +1407,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1432,7 +1415,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1440,7 +1423,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1448,7 +1431,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -1456,31 +1439,31 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -1488,7 +1471,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -1496,7 +1479,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -1504,7 +1487,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -1512,7 +1495,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1520,7 +1503,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -1528,7 +1511,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1536,7 +1519,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1544,7 +1527,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1552,7 +1535,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -1560,7 +1543,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -1568,9 +1551,33 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
